--- a/Normalizzazione.xlsx
+++ b/Normalizzazione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163AFD91-DA96-43CC-80B6-7B17F5A4A0D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666BB144-F445-4453-8156-DD7C9FDB2931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2259197-BCDF-460D-8CEC-88F89E4D8FDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{F2259197-BCDF-460D-8CEC-88F89E4D8FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
   <si>
     <t>CodiceC</t>
   </si>
@@ -184,13 +184,67 @@
   </si>
   <si>
     <t>{Numero(Problema),Descrizione(Problema),Risolto,CodiceS,Nome(Software),Tipo(Software),Prezzo,Caratteristica,Licenza,Versione,Sistema,CodiceC,Indirizzo,Numero(Telefono/Fax),Tipo(Telefono/Fax),CF(Privato),Nome(Privato),Cognome(Privato),Data_Nascita(Privato),Ragione_sociale,Partita_iva,CodiceO,Cognome(Operatore),Nome(Operatore),Data_nascita(Operatore),CF(Operatore),Ruolo,Numero_esami_dati,Data_rilascio,CodiceCF,Descrizione(Corso_Formativo),Durata_in_ore,Data_inizio,Numero_esami}</t>
+  </si>
+  <si>
+    <t>{CF}+</t>
+  </si>
+  <si>
+    <t>{CF(Privato),Nome(Privato),Cognome(Privato),Data_Nascita(Privato)}</t>
+  </si>
+  <si>
+    <t>{Ragione_sociale}+</t>
+  </si>
+  <si>
+    <t>{Ragione_sociale,Partita_iva}</t>
+  </si>
+  <si>
+    <t>Chiave</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Possiede</t>
+  </si>
+  <si>
+    <t>Privato</t>
+  </si>
+  <si>
+    <t>Tipo1</t>
+  </si>
+  <si>
+    <t>Azienda</t>
+  </si>
+  <si>
+    <t>Tipo2</t>
+  </si>
+  <si>
+    <t>Corso_Formativo</t>
+  </si>
+  <si>
+    <t>Software(Sistemare)</t>
+  </si>
+  <si>
+    <t>Operatore</t>
+  </si>
+  <si>
+    <t>Segue/Attestato</t>
+  </si>
+  <si>
+    <t>Problema</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +260,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -244,11 +310,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +358,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,167 +686,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F53E3E-AA87-4EE6-9EC6-A6D72145CDCA}">
-  <dimension ref="B1:AI18"/>
+  <dimension ref="B1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -771,15 +877,15 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -811,15 +917,15 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -851,15 +957,15 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -891,15 +997,15 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -931,15 +1037,15 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="AJ8" s="5"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -971,15 +1077,15 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="AJ9" s="5"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1011,15 +1117,15 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1051,146 +1157,513 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="AJ11" s="5"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>0</v>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C11:AI11"/>
-    <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="C5:AI5"/>
-    <mergeCell ref="C6:AI6"/>
-    <mergeCell ref="C9:AI9"/>
-    <mergeCell ref="C10:AI10"/>
-    <mergeCell ref="C7:AI7"/>
-    <mergeCell ref="C8:AI8"/>
+  <mergeCells count="10">
+    <mergeCell ref="D12:AJ12"/>
+    <mergeCell ref="D13:AJ13"/>
+    <mergeCell ref="D11:AJ11"/>
+    <mergeCell ref="D4:AJ4"/>
+    <mergeCell ref="D5:AJ5"/>
+    <mergeCell ref="D6:AJ6"/>
+    <mergeCell ref="D9:AJ9"/>
+    <mergeCell ref="D10:AJ10"/>
+    <mergeCell ref="D7:AJ7"/>
+    <mergeCell ref="D8:AJ8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Normalizzazione.xlsx
+++ b/Normalizzazione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666BB144-F445-4453-8156-DD7C9FDB2931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE0736-5A76-4AA7-B402-BA797E6DD507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{F2259197-BCDF-460D-8CEC-88F89E4D8FDA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>CodiceC</t>
   </si>
@@ -186,18 +186,6 @@
     <t>{Numero(Problema),Descrizione(Problema),Risolto,CodiceS,Nome(Software),Tipo(Software),Prezzo,Caratteristica,Licenza,Versione,Sistema,CodiceC,Indirizzo,Numero(Telefono/Fax),Tipo(Telefono/Fax),CF(Privato),Nome(Privato),Cognome(Privato),Data_Nascita(Privato),Ragione_sociale,Partita_iva,CodiceO,Cognome(Operatore),Nome(Operatore),Data_nascita(Operatore),CF(Operatore),Ruolo,Numero_esami_dati,Data_rilascio,CodiceCF,Descrizione(Corso_Formativo),Durata_in_ore,Data_inizio,Numero_esami}</t>
   </si>
   <si>
-    <t>{CF}+</t>
-  </si>
-  <si>
-    <t>{CF(Privato),Nome(Privato),Cognome(Privato),Data_Nascita(Privato)}</t>
-  </si>
-  <si>
-    <t>{Ragione_sociale}+</t>
-  </si>
-  <si>
-    <t>{Ragione_sociale,Partita_iva}</t>
-  </si>
-  <si>
     <t>Chiave</t>
   </si>
   <si>
@@ -210,22 +198,7 @@
     <t>Possiede</t>
   </si>
   <si>
-    <t>Privato</t>
-  </si>
-  <si>
-    <t>Tipo1</t>
-  </si>
-  <si>
-    <t>Azienda</t>
-  </si>
-  <si>
-    <t>Tipo2</t>
-  </si>
-  <si>
     <t>Corso_Formativo</t>
-  </si>
-  <si>
-    <t>Software(Sistemare)</t>
   </si>
   <si>
     <t>Operatore</t>
@@ -356,9 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F53E3E-AA87-4EE6-9EC6-A6D72145CDCA}">
-  <dimension ref="B1:AJ37"/>
+  <dimension ref="B1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,10 +706,10 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -843,819 +816,686 @@
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="13" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-    </row>
-    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D12:AJ12"/>
-    <mergeCell ref="D13:AJ13"/>
+  <mergeCells count="8">
     <mergeCell ref="D11:AJ11"/>
     <mergeCell ref="D4:AJ4"/>
     <mergeCell ref="D5:AJ5"/>

--- a/Normalizzazione.xlsx
+++ b/Normalizzazione.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE0736-5A76-4AA7-B402-BA797E6DD507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FA88ED-C4A2-4C39-B867-F34BFFA42AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{F2259197-BCDF-460D-8CEC-88F89E4D8FDA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
   <si>
     <t>CodiceC</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Software</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -659,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F53E3E-AA87-4EE6-9EC6-A6D72145CDCA}">
-  <dimension ref="B1:AJ31"/>
+  <dimension ref="B1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:E30"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,8 +708,8 @@
     <col min="36" max="36" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
@@ -811,8 +815,11 @@
       <c r="AJ2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
@@ -851,8 +858,9 @@
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="10"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
@@ -891,8 +899,9 @@
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="10"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
@@ -931,8 +940,9 @@
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="10"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
@@ -971,8 +981,9 @@
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1011,8 +1022,9 @@
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="10"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1051,8 +1063,9 @@
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="10"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
@@ -1091,8 +1104,9 @@
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="10"/>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
@@ -1131,9 +1145,12 @@
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
-    </row>
-    <row r="13" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK11" s="10"/>
+    </row>
+    <row r="13" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ13" s="11"/>
+    </row>
+    <row r="14" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
@@ -1184,8 +1201,11 @@
       <c r="L15" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>55</v>
       </c>
@@ -1342,6 +1362,9 @@
       </c>
       <c r="J24" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1496,14 +1519,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D11:AJ11"/>
-    <mergeCell ref="D4:AJ4"/>
-    <mergeCell ref="D5:AJ5"/>
-    <mergeCell ref="D6:AJ6"/>
-    <mergeCell ref="D9:AJ9"/>
-    <mergeCell ref="D10:AJ10"/>
-    <mergeCell ref="D7:AJ7"/>
-    <mergeCell ref="D8:AJ8"/>
+    <mergeCell ref="D4:AK4"/>
+    <mergeCell ref="D5:AK5"/>
+    <mergeCell ref="D6:AK6"/>
+    <mergeCell ref="D7:AK7"/>
+    <mergeCell ref="D8:AK8"/>
+    <mergeCell ref="D9:AK9"/>
+    <mergeCell ref="D10:AK10"/>
+    <mergeCell ref="D11:AK11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Normalizzazione.xlsx
+++ b/Normalizzazione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FA88ED-C4A2-4C39-B867-F34BFFA42AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A7914A-FF17-45B5-A9C0-DE5E47C60518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{F2259197-BCDF-460D-8CEC-88F89E4D8FDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2259197-BCDF-460D-8CEC-88F89E4D8FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="77">
   <si>
     <t>CodiceC</t>
   </si>
@@ -214,13 +214,61 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Documentazione</t>
+  </si>
+  <si>
+    <t>Prima forma normale (1NF)</t>
+  </si>
+  <si>
+    <t>Seconda forma normale (2NF)</t>
+  </si>
+  <si>
+    <t>Terza forma normale (3NF)</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Normalizzazione</t>
+  </si>
+  <si>
+    <t>La relazione non deve presentare attributi multivalued o composti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per normalizzare si forma una nuova relazione per ogni attributo NON atomico </t>
+  </si>
+  <si>
+    <t>Per normalizzare viene creata una relazione per ogni chiave parziale con i suoi attributi dipendenti.                    Viene quindi mantenuta una chiave primaria e gli attributi che dipendono funzionalmente da questa.</t>
+  </si>
+  <si>
+    <t>Non deve esistere una dipendenza transitiva tra un attributo non chiave e la chiave primaria.</t>
+  </si>
+  <si>
+    <t>Per normalizzare viene decomposta la relazione in un insieme di relazioni che includono gli attributi NON chiave che funzionalmente determinano altri attributi NON chiave.</t>
+  </si>
+  <si>
+    <t>La chiave primaria contiene attributi multipli e attributi NON chiave che sono funzionalmente dipendenti da parte della chiave primaria.</t>
+  </si>
+  <si>
+    <t>Campi che violano la 2NF</t>
+  </si>
+  <si>
+    <t>I campi che dipendono da: {CodiceC}+, {CodiceS}+, {CodiceO}+, {CodiceCF}+, {CodiceC,CodiceCF}+, {CodiceS,CodiceC,CodiceO}+.</t>
+  </si>
+  <si>
+    <t>Campi che violano la 3NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I campi che dipendono da: {Numero(Telefono/Fax)}+ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,13 +285,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,18 +326,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -287,16 +391,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -309,6 +424,41 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -318,43 +468,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFEFB585"/>
+      <color rgb="FFE79A8D"/>
+      <color rgb="FFD7DCF3"/>
+      <color rgb="FF9CF8BB"/>
+      <color rgb="FFBCC9D8"/>
+      <color rgb="FFBDAFD1"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -663,18 +854,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F53E3E-AA87-4EE6-9EC6-A6D72145CDCA}">
-  <dimension ref="B1:AK31"/>
+  <dimension ref="A2:AK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -708,825 +900,976 @@
     <col min="36" max="36" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-    </row>
-    <row r="13" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ13" s="11"/>
-    </row>
-    <row r="14" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="14" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="5"/>
+      <c r="D40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="5"/>
+      <c r="D41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C45:C53"/>
+    <mergeCell ref="D45:D53"/>
+    <mergeCell ref="E45:E53"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D9:AK9"/>
+    <mergeCell ref="D10:AK10"/>
+    <mergeCell ref="D11:AK11"/>
     <mergeCell ref="D4:AK4"/>
     <mergeCell ref="D5:AK5"/>
     <mergeCell ref="D6:AK6"/>
     <mergeCell ref="D7:AK7"/>
     <mergeCell ref="D8:AK8"/>
-    <mergeCell ref="D9:AK9"/>
-    <mergeCell ref="D10:AK10"/>
-    <mergeCell ref="D11:AK11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
